--- a/experiment/output/results/TerraIncognita/RSC/DG/1.xlsx
+++ b/experiment/output/results/TerraIncognita/RSC/DG/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250131_04-48-49_resnet50_EVE</t>
+          <t>250218_02-05-41_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43.086</v>
+        <v>48.183</v>
       </c>
       <c r="E2" t="n">
-        <v>43.086</v>
+        <v>48.183</v>
       </c>
       <c r="F2" t="n">
-        <v>32.649</v>
+        <v>31.647</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250218_12-37-24_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
